--- a/MARCELINO_RAMOS.xlsx
+++ b/MARCELINO_RAMOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0C2555A-4DE0-4F1E-87B9-DB92E7B2A569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E2DD5A4-5E06-4C09-9894-7915052131A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,20 +21,7 @@
     <sheet name="Recolhimento x Eliminacao" sheetId="5" r:id="rId6"/>
     <sheet name="Desarquivamentos Pendentes" sheetId="6" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -1059,7 +1046,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1119,36 +1106,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1187,14 +1150,9 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1240,7 +1198,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{50B035B2-36B1-4BFC-86E7-BB5B8B6DFE0E}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{1205CDD8-E072-423E-864A-F729182858F3}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1270,10 +1228,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D895DDC-1261-4DBB-B70A-2A7FB72AF7AF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83116DC7-2150-4C51-B1C8-588D00DCC7C1}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1311,7 +1269,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BEF73D1-C3A3-4874-8F86-9A63BCF789B8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAA4F384-A26E-4F4F-B879-CFDCD0F6B0F6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1374,7 +1332,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79873248-84A2-4435-8E42-FA671C62CD8D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AAC1974-B503-4447-82AB-DA61AA56C9EB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1393,7 +1351,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BBCEE4A-E12B-15D9-3970-46174E13583E}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0149138-DE1D-C697-B840-860F1F190CA6}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1442,7 +1400,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB500AA8-9DAA-EFC3-DA04-94161248238A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D937063-5268-F34D-D068-CDFE99D194BE}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1461,7 +1419,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A539858D-83BF-2C4F-985F-F57C36072C82}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A00203ED-45F8-469B-9298-7673AA866607}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1492,7 +1450,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5B56754-E657-80C6-C96B-B9CF828EA87F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D6E6EEC-FEF7-5B26-6E4D-A5EA7A8C356F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1523,7 +1481,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F53FC0F5-68A1-038F-8868-BD9A299D78A6}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{814926D8-59F8-FB34-B37E-0B33B04B87CD}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1566,7 +1524,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B413004-49F1-42CB-9CCA-070951AFE5BC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB1EBB01-4815-4800-BF9C-2C2477F65DBE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1604,7 +1562,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE620DC3-C54B-444F-B07C-DEFD0FF014F0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11C42253-55A2-4FC8-BE58-8B0257EFD8D5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1647,7 +1605,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F899D0C-8C79-444E-A38C-069B2121ACBB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10386D35-0E61-4738-A0FE-754837CA5CF9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1960,7 +1918,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{431A64C7-5BCA-45D7-9478-7CD55B54934C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63DF0C81-2417-47DE-B3D1-511D0063E523}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1972,98 +1930,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="37"/>
-    <col min="6" max="6" width="2" style="37" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="37" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="37"/>
+    <col min="1" max="5" width="12.5703125" style="34"/>
+    <col min="6" max="6" width="2" style="34" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="34" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="34"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="36"/>
+      <c r="F1" s="33"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="36"/>
+      <c r="F2" s="33"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="36"/>
+      <c r="F3" s="33"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="36"/>
+      <c r="F4" s="33"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="36"/>
+      <c r="F5" s="33"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="36"/>
+      <c r="F6" s="33"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="36"/>
+      <c r="F7" s="33"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="36"/>
+      <c r="F8" s="33"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="36"/>
+      <c r="F9" s="33"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="36"/>
+      <c r="F10" s="33"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="36"/>
+      <c r="F11" s="33"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="36"/>
+      <c r="F12" s="33"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="36"/>
+      <c r="F13" s="33"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="36"/>
+      <c r="F14" s="33"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="36"/>
+      <c r="F15" s="33"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="36"/>
+      <c r="F16" s="33"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="36"/>
+      <c r="F17" s="33"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="36"/>
+      <c r="F18" s="33"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="36"/>
+      <c r="F19" s="33"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="36"/>
+      <c r="F20" s="33"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="36"/>
+      <c r="F21" s="33"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="36"/>
+      <c r="F22" s="33"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="36"/>
+      <c r="F23" s="33"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="36"/>
+      <c r="F24" s="33"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="36"/>
+      <c r="F25" s="33"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="36"/>
+      <c r="F26" s="33"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="36"/>
+      <c r="F27" s="33"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="36"/>
+      <c r="F28" s="33"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="36"/>
+      <c r="F29" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5299,19 +5257,19 @@
     <col min="2" max="2" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="2" t="s">
         <v>270</v>
       </c>
     </row>
@@ -5334,46 +5292,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="18" t="s">
         <v>271</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="17" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="19" t="s">
         <v>273</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="19" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="19" t="s">
         <v>275</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="19" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="19" t="s">
         <v>276</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="19" t="s">
         <v>274</v>
       </c>
     </row>
@@ -5398,54 +5356,55 @@
     <col min="6" max="6" width="12.5703125" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
     <col min="8" max="8" width="15.42578125" customWidth="1"/>
-    <col min="9" max="14" width="13" customWidth="1"/>
-    <col min="15" max="15" width="30.85546875" customWidth="1"/>
+    <col min="9" max="12" width="13" customWidth="1"/>
+    <col min="13" max="13" width="42.140625" customWidth="1"/>
+    <col min="14" max="15" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="20" t="s">
         <v>277</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="21" t="s">
         <v>278</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="21" t="s">
         <v>279</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="21" t="s">
         <v>280</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="22" t="s">
         <v>282</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="22" t="s">
         <v>283</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="20" t="s">
         <v>284</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="20" t="s">
         <v>285</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="20" t="s">
         <v>286</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="20" t="s">
         <v>287</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="L1" s="20" t="s">
         <v>288</v>
       </c>
-      <c r="M1" s="23" t="s">
+      <c r="M1" s="20" t="s">
         <v>289</v>
       </c>
-      <c r="N1" s="23" t="s">
+      <c r="N1" s="20" t="s">
         <v>290</v>
       </c>
-      <c r="O1" s="23" t="s">
+      <c r="O1" s="20" t="s">
         <v>291</v>
       </c>
     </row>
@@ -5456,43 +5415,43 @@
       <c r="B2" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="C2" s="26">
+      <c r="C2" s="23">
         <v>45261</v>
       </c>
-      <c r="D2" s="27">
+      <c r="D2" s="24">
         <v>939</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="24" t="s">
         <v>293</v>
       </c>
-      <c r="F2" s="28">
+      <c r="F2" s="25">
         <v>2372</v>
       </c>
-      <c r="G2" s="28">
+      <c r="G2" s="25">
         <v>302</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="H2" s="26" t="s">
         <v>294</v>
       </c>
-      <c r="I2" s="29" t="s">
+      <c r="I2" s="26" t="s">
         <v>294</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="K2" s="29" t="s">
+      <c r="K2" s="26" t="s">
         <v>294</v>
       </c>
-      <c r="L2" s="29" t="s">
+      <c r="L2" s="26" t="s">
         <v>294</v>
       </c>
-      <c r="M2" s="29" t="s">
+      <c r="M2" s="26" t="s">
         <v>294</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="O2" s="30" t="s">
+      <c r="O2" s="27" t="s">
         <v>296</v>
       </c>
     </row>
@@ -5523,25 +5482,24 @@
       <c r="B1" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="28" t="s">
         <v>298</v>
       </c>
-      <c r="E1" s="32">
-        <f>SUM(B2:B157)</f>
-        <v>22</v>
-      </c>
-      <c r="F1" s="33">
+      <c r="E1" s="29">
+        <v>15072</v>
+      </c>
+      <c r="F1" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="31" t="s">
         <v>299</v>
       </c>
-      <c r="B2" s="35">
-        <v>22</v>
-      </c>
-      <c r="C2" s="33">
+      <c r="B2" s="32">
+        <v>22</v>
+      </c>
+      <c r="C2" s="30">
         <v>1.454834016664462E-3</v>
       </c>
     </row>

--- a/MARCELINO_RAMOS.xlsx
+++ b/MARCELINO_RAMOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E2DD5A4-5E06-4C09-9894-7915052131A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{527294CB-6F20-4807-AB0C-FB8CF58F0E9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1198,7 +1198,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{1205CDD8-E072-423E-864A-F729182858F3}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{6BB0F6A6-A88F-4E03-9572-F42B0089F989}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1228,10 +1228,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83116DC7-2150-4C51-B1C8-588D00DCC7C1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C65EEDFB-49DE-415F-B96C-8D3A5079A783}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1269,7 +1269,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAA4F384-A26E-4F4F-B879-CFDCD0F6B0F6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{779A9CB0-A5AD-499B-B28E-6026F76C37EB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1332,7 +1332,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AAC1974-B503-4447-82AB-DA61AA56C9EB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C38884C2-A887-40DB-8034-9AA11AE31D64}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1351,7 +1351,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0149138-DE1D-C697-B840-860F1F190CA6}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D94DE25-6C28-10A8-A00F-A8B2DB310917}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1400,7 +1400,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D937063-5268-F34D-D068-CDFE99D194BE}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CF146F7-4A4B-4616-14D9-2D272ED823E7}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1419,7 +1419,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A00203ED-45F8-469B-9298-7673AA866607}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D727C63-DA0D-09DF-12D0-3F134F765F4D}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1450,7 +1450,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D6E6EEC-FEF7-5B26-6E4D-A5EA7A8C356F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EB6139C-3AFB-460F-F591-707B922A4481}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1481,7 +1481,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{814926D8-59F8-FB34-B37E-0B33B04B87CD}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FB177F0-45E3-928E-D9FC-8D60BAEBA431}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1524,7 +1524,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB1EBB01-4815-4800-BF9C-2C2477F65DBE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB481B38-1D23-46CC-BF4E-A578FDF5978A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1562,7 +1562,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11C42253-55A2-4FC8-BE58-8B0257EFD8D5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD88CA6D-8FFC-4EF3-846F-2C45DBEE1747}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1605,7 +1605,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10386D35-0E61-4738-A0FE-754837CA5CF9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD3F68FB-F38E-425D-8212-192A910A6981}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1918,7 +1918,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63DF0C81-2417-47DE-B3D1-511D0063E523}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13ACD59A-690B-46F3-85BC-143116656BFC}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>

--- a/MARCELINO_RAMOS.xlsx
+++ b/MARCELINO_RAMOS.xlsx
@@ -8,25 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{527294CB-6F20-4807-AB0C-FB8CF58F0E9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{35ABF1C4-5339-411E-8B1E-A7823F6764D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Paineis DARQ" sheetId="7" r:id="rId1"/>
+    <sheet name="PAINEIS DARQ" sheetId="6" r:id="rId1"/>
     <sheet name="DESFAZIMENTOS" sheetId="1" r:id="rId2"/>
     <sheet name="MATERIAIS-FORNECIDOS" sheetId="2" r:id="rId3"/>
     <sheet name="DATA-LIMITE-REQUISICOES" sheetId="3" r:id="rId4"/>
     <sheet name="CPIP" sheetId="4" r:id="rId5"/>
-    <sheet name="Recolhimento x Eliminacao" sheetId="5" r:id="rId6"/>
-    <sheet name="Desarquivamentos Pendentes" sheetId="6" r:id="rId7"/>
+    <sheet name="RECOLHIMENTO X ELIMINAÇÃO" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="297">
   <si>
     <t>COMARCA</t>
   </si>
@@ -917,15 +916,6 @@
   </si>
   <si>
     <t>Não finalizou procedimentos de eliminação</t>
-  </si>
-  <si>
-    <t>PEDIDOS PENDENTES</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>MARCELINO RAMOS</t>
   </si>
 </sst>
 </file>
@@ -1111,7 +1101,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1178,27 +1168,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{6BB0F6A6-A88F-4E03-9572-F42B0089F989}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{2C41167E-3347-4CC0-90E2-6E43F1A82060}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1228,10 +1203,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C65EEDFB-49DE-415F-B96C-8D3A5079A783}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D7D6170-926C-460B-8E27-AADC9D6FB28F}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1269,7 +1244,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{779A9CB0-A5AD-499B-B28E-6026F76C37EB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BBCA02A-40C0-4A52-B820-6EA1003D2AD0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1332,7 +1307,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C38884C2-A887-40DB-8034-9AA11AE31D64}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF24BC02-874E-4B19-B8F7-BCF00F8BB691}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1351,7 +1326,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D94DE25-6C28-10A8-A00F-A8B2DB310917}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D2A54C3-B9CF-E5D3-F419-FC543F1CB9C7}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1400,7 +1375,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CF146F7-4A4B-4616-14D9-2D272ED823E7}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F563AF50-BEDB-02D3-B91C-BA7C9AF735D7}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1419,7 +1394,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D727C63-DA0D-09DF-12D0-3F134F765F4D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83399CAB-16E8-4895-4A24-136A36FFEC41}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1450,7 +1425,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EB6139C-3AFB-460F-F591-707B922A4481}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13898BBD-1408-8237-5CE0-91C8DCBC1DBB}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1481,7 +1456,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FB177F0-45E3-928E-D9FC-8D60BAEBA431}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8451F28-F018-F8D9-4D77-FA2C60DBA9BE}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1524,7 +1499,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB481B38-1D23-46CC-BF4E-A578FDF5978A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D96C3B9E-3285-42B0-B145-DD7AE4F6D661}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1562,7 +1537,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD88CA6D-8FFC-4EF3-846F-2C45DBEE1747}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B959B87-C8A7-4998-90FE-431BB710BEEF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1605,7 +1580,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD3F68FB-F38E-425D-8212-192A910A6981}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E264323D-5915-4A51-B740-DFFACF9C1E98}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1918,7 +1893,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13ACD59A-690B-46F3-85BC-143116656BFC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C58C82D-1551-4A26-9E46-475EE28C0B4A}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1930,98 +1905,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="34"/>
-    <col min="6" max="6" width="2" style="34" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="34" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="34"/>
+    <col min="1" max="5" width="12.5703125" style="29"/>
+    <col min="6" max="6" width="2" style="29" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="29" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="33"/>
+      <c r="F1" s="28"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="33"/>
+      <c r="F2" s="28"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="33"/>
+      <c r="F3" s="28"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="33"/>
+      <c r="F4" s="28"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="33"/>
+      <c r="F5" s="28"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="33"/>
+      <c r="F6" s="28"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="33"/>
+      <c r="F7" s="28"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="33"/>
+      <c r="F8" s="28"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="33"/>
+      <c r="F9" s="28"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="33"/>
+      <c r="F10" s="28"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="33"/>
+      <c r="F11" s="28"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="33"/>
+      <c r="F12" s="28"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="33"/>
+      <c r="F13" s="28"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="33"/>
+      <c r="F14" s="28"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="33"/>
+      <c r="F15" s="28"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="33"/>
+      <c r="F16" s="28"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="33"/>
+      <c r="F17" s="28"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="33"/>
+      <c r="F18" s="28"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="33"/>
+      <c r="F19" s="28"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="33"/>
+      <c r="F20" s="28"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="33"/>
+      <c r="F21" s="28"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="33"/>
+      <c r="F22" s="28"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="33"/>
+      <c r="F23" s="28"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="33"/>
+      <c r="F24" s="28"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="33"/>
+      <c r="F25" s="28"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="33"/>
+      <c r="F26" s="28"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="33"/>
+      <c r="F27" s="28"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="33"/>
+      <c r="F28" s="28"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="33"/>
+      <c r="F29" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5458,52 +5433,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="6" width="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>298</v>
-      </c>
-      <c r="E1" s="29">
-        <v>15072</v>
-      </c>
-      <c r="F1" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
-        <v>299</v>
-      </c>
-      <c r="B2" s="32">
-        <v>22</v>
-      </c>
-      <c r="C2" s="30">
-        <v>1.454834016664462E-3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/MARCELINO_RAMOS.xlsx
+++ b/MARCELINO_RAMOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{35ABF1C4-5339-411E-8B1E-A7823F6764D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5C6F7C0-ED30-4933-9D48-2F3F678DFBC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1173,7 +1173,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{2C41167E-3347-4CC0-90E2-6E43F1A82060}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{7FF58D13-C2C2-433E-8345-9B160032B145}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1203,10 +1203,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D7D6170-926C-460B-8E27-AADC9D6FB28F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5D63EBA-DDF8-4EC0-8251-6D73873680EB}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1244,7 +1244,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BBCA02A-40C0-4A52-B820-6EA1003D2AD0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E71C365-1FE7-42C0-A547-AE565A7CA998}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1307,7 +1307,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF24BC02-874E-4B19-B8F7-BCF00F8BB691}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37D67928-4C1D-47E0-9172-4B69AD6E1DF3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1326,7 +1326,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D2A54C3-B9CF-E5D3-F419-FC543F1CB9C7}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6E1EEFC-E8FF-3131-CD39-0EF7DFF0CEBD}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1375,7 +1375,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F563AF50-BEDB-02D3-B91C-BA7C9AF735D7}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA5F32EF-7819-367B-0391-858FE4878A33}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1394,7 +1394,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83399CAB-16E8-4895-4A24-136A36FFEC41}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C938A994-2B8B-C66B-8E26-835D4BB09488}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1425,7 +1425,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13898BBD-1408-8237-5CE0-91C8DCBC1DBB}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEA471EB-A319-65F9-D21A-8EB5B19109FE}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1456,7 +1456,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8451F28-F018-F8D9-4D77-FA2C60DBA9BE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{136D0EE2-82C6-DE74-8E5D-2128C97C6A01}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1499,7 +1499,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D96C3B9E-3285-42B0-B145-DD7AE4F6D661}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC5C5669-018B-4255-A42A-647E0BC10F79}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1537,7 +1537,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B959B87-C8A7-4998-90FE-431BB710BEEF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F718038-3277-41E8-8F7B-C1100558AF4F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1562,50 +1562,6 @@
     </xdr:pic>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>315640</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>143650</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Imagem 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E264323D-5915-4A51-B740-DFFACF9C1E98}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1485900" y="6219825"/>
-          <a:ext cx="9421540" cy="4525150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1893,7 +1849,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C58C82D-1551-4A26-9E46-475EE28C0B4A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E861F1B2-BC94-4A22-A284-663C6E1F690E}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
